--- a/biology/Histoire de la zoologie et de la botanique/Viktor_Motchoulski/Viktor_Motchoulski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Viktor_Motchoulski/Viktor_Motchoulski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viktor Ivanovitch Motchoulski (en russe : Виктор Иванович Мочульский) est un entomologiste russe, né le 11 avril 1810 à Saint-Pétersbourg et mort le 5 juin 1871 à Simféropol. Son abréviation en zoologie est Motschulsky, selon l'orthographe allemande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colonel dans l’armée impériale de Russie, il fait de très nombreux voyages, souvent dans des conditions très difficiles, qui lui permettent d’étudier et de décrire de nombreuses espèces de coléoptères de Sibérie, d’Alaska, des États-Unis, d’Europe et d’Asie. S’il délaisse les travaux antérieurs, ce qui rend ses classifications de bien mauvaise qualité, ses voyages dans des régions souvent encore inexplorées par les entomologistes, lui permettent de décrire de nombreux nouveaux genres et de nombreuses nouvelles espèces qui restent aujourd’hui encore largement valides. Il demeure qu’il fait l’objet de sévères critiques de la part des spécialistes de son temps sur le manque de soin qu’il apporte à ses publications. Son œuvre est néanmoins une étape essentielle de la coléoptérologie mondiale. C'est l'un des cofondateurs de la Société entomologique de Russie en 1859.
 Motchoulski fait paraître 45 publications, la plupart concernant la biogéographie, la faunistique ou la taxinomie. Nombreuses d’entre elles ont été rendues possibles grâce à l’utilisation des collections rapportées par d’autres, notamment des Russes qui étaient partis en Sibérie comme Leopold Ivanovitch von Schrenck (1826-1894), Ilia Gavrilovitch Voznessenski (1816-1871), Hugo Theodor Christoph (1831-1894) et bien d’autres. La plupart concernent les coléoptères mais certaines portent sur les lépidoptères et les hémiptères. Il s'oppose à l'entomologiste français Édouard Ménétries, conservateur au musée zoologique de la Kunstkamera de Saint-Pétersbourg.
@@ -544,7 +558,9 @@
           <t>Les voyages de Motchoulski</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1836 - France, Suisse et les Alpes, nord de l’Italie et Autriche ; il rapporte 4 000 spécimens.
 1839-1840 - Caucase russe, Astrakhan, Kazan et Sibérie.
@@ -579,7 +595,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Insectes de la Sibérie rapportés d'un voyage fait en 1839 et 1840. Mémoires de l'Académie Impériale des Sciences de St.-Pétersbourg, 13: 1-274. (1845)
 Die Kaefer Russlands. I. Insecta Carabica. Moscou : Gautier, vii + 91 pp. + 9 tableaux. (1850).
